--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H2">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N2">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O2">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P2">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q2">
-        <v>593.9305207965555</v>
+        <v>821.5501245541055</v>
       </c>
       <c r="R2">
-        <v>5345.374687168999</v>
+        <v>7393.951120986951</v>
       </c>
       <c r="S2">
-        <v>0.002775752542807622</v>
+        <v>0.003726638807872028</v>
       </c>
       <c r="T2">
-        <v>0.002775752542807622</v>
+        <v>0.003726638807872028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H3">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P3">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q3">
-        <v>423.8620712983333</v>
+        <v>457.0913082966933</v>
       </c>
       <c r="R3">
-        <v>3814.758641684999</v>
+        <v>4113.821774670239</v>
       </c>
       <c r="S3">
-        <v>0.001980932417192725</v>
+        <v>0.002073414825618801</v>
       </c>
       <c r="T3">
-        <v>0.001980932417192724</v>
+        <v>0.0020734148256188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H4">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N4">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O4">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P4">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q4">
-        <v>2511.648247475</v>
+        <v>4397.825600702972</v>
       </c>
       <c r="R4">
-        <v>22604.834227275</v>
+        <v>39580.43040632675</v>
       </c>
       <c r="S4">
-        <v>0.01173826527758981</v>
+        <v>0.01994900501381819</v>
       </c>
       <c r="T4">
-        <v>0.01173826527758981</v>
+        <v>0.01994900501381819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H5">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N5">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q5">
-        <v>79.76202606694443</v>
+        <v>104.4872297885858</v>
       </c>
       <c r="R5">
-        <v>717.8582346025</v>
+        <v>940.385068097272</v>
       </c>
       <c r="S5">
-        <v>0.0003727702802305507</v>
+        <v>0.00047396519557285</v>
       </c>
       <c r="T5">
-        <v>0.0003727702802305506</v>
+        <v>0.00047396519557285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H6">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N6">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O6">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P6">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q6">
-        <v>3795.387010237639</v>
+        <v>3639.326940700203</v>
       </c>
       <c r="R6">
-        <v>34158.48309213875</v>
+        <v>32753.94246630183</v>
       </c>
       <c r="S6">
-        <v>0.01773785783979742</v>
+        <v>0.0165083743601263</v>
       </c>
       <c r="T6">
-        <v>0.01773785783979741</v>
+        <v>0.01650837436012629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J7">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N7">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O7">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P7">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q7">
-        <v>1333.052426927765</v>
+        <v>1709.886349947705</v>
       </c>
       <c r="R7">
-        <v>11997.47184234988</v>
+        <v>15388.97714952934</v>
       </c>
       <c r="S7">
-        <v>0.006230061487289837</v>
+        <v>0.007756226477628769</v>
       </c>
       <c r="T7">
-        <v>0.006230061487289835</v>
+        <v>0.007756226477628769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J8">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P8">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q8">
         <v>951.3408438230733</v>
@@ -948,10 +948,10 @@
         <v>8562.067594407659</v>
       </c>
       <c r="S8">
-        <v>0.004446120672123507</v>
+        <v>0.004315383324941972</v>
       </c>
       <c r="T8">
-        <v>0.004446120672123505</v>
+        <v>0.004315383324941972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J9">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N9">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O9">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P9">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q9">
-        <v>5637.2903473541</v>
+        <v>9153.162709547296</v>
       </c>
       <c r="R9">
-        <v>50735.6131261869</v>
+        <v>82378.46438592568</v>
       </c>
       <c r="S9">
-        <v>0.02634604969488168</v>
+        <v>0.04151972028082821</v>
       </c>
       <c r="T9">
-        <v>0.02634604969488168</v>
+        <v>0.0415197202808282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J10">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N10">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q10">
-        <v>179.0225602190211</v>
+        <v>217.4685178902748</v>
       </c>
       <c r="R10">
-        <v>1611.20304197119</v>
+        <v>1957.216661012473</v>
       </c>
       <c r="S10">
-        <v>0.0008366674372642554</v>
+        <v>0.0009864603437315133</v>
       </c>
       <c r="T10">
-        <v>0.0008366674372642552</v>
+        <v>0.0009864603437315131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J11">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N11">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O11">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P11">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q11">
-        <v>8518.588770858027</v>
+        <v>7574.504918099361</v>
       </c>
       <c r="R11">
-        <v>76667.29893772225</v>
+        <v>68170.54426289425</v>
       </c>
       <c r="S11">
-        <v>0.03981188643097387</v>
+        <v>0.03435876051205883</v>
       </c>
       <c r="T11">
-        <v>0.03981188643097387</v>
+        <v>0.03435876051205883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H12">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I12">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J12">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N12">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O12">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P12">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q12">
-        <v>8110.578121541946</v>
+        <v>7480.666276784095</v>
       </c>
       <c r="R12">
-        <v>72995.2030938775</v>
+        <v>67325.99649105685</v>
       </c>
       <c r="S12">
-        <v>0.03790503612159291</v>
+        <v>0.03393309844719912</v>
       </c>
       <c r="T12">
-        <v>0.03790503612159291</v>
+        <v>0.03393309844719912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H13">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I13">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J13">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P13">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q13">
-        <v>5788.162624498774</v>
+        <v>4162.06806278806</v>
       </c>
       <c r="R13">
-        <v>52093.46362048896</v>
+        <v>37458.61256509254</v>
       </c>
       <c r="S13">
-        <v>0.02705115591902698</v>
+        <v>0.01887958372863621</v>
       </c>
       <c r="T13">
-        <v>0.02705115591902697</v>
+        <v>0.0188795837286362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H14">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I14">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J14">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N14">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O14">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P14">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q14">
-        <v>34298.4888159296</v>
+        <v>40044.62378995092</v>
       </c>
       <c r="R14">
-        <v>308686.3993433664</v>
+        <v>360401.6141095583</v>
       </c>
       <c r="S14">
-        <v>0.1602950416112503</v>
+        <v>0.1816466757195878</v>
       </c>
       <c r="T14">
-        <v>0.1602950416112502</v>
+        <v>0.1816466757195877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H15">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I15">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J15">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N15">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q15">
-        <v>1089.211820064071</v>
+        <v>951.4137638994264</v>
       </c>
       <c r="R15">
-        <v>9802.906380576642</v>
+        <v>8562.723875094838</v>
       </c>
       <c r="S15">
-        <v>0.005090464916913391</v>
+        <v>0.004315714098169665</v>
       </c>
       <c r="T15">
-        <v>0.005090464916913389</v>
+        <v>0.004315714098169664</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H16">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I16">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J16">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N16">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O16">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P16">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q16">
-        <v>51828.92909213231</v>
+        <v>33138.07581766714</v>
       </c>
       <c r="R16">
-        <v>466460.3618291907</v>
+        <v>298242.6823590043</v>
       </c>
       <c r="S16">
-        <v>0.2422240930227618</v>
+        <v>0.1503178390087274</v>
       </c>
       <c r="T16">
-        <v>0.2422240930227618</v>
+        <v>0.1503178390087274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H17">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I17">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J17">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N17">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O17">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P17">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q17">
-        <v>111.0004776424769</v>
+        <v>147.9141921280917</v>
       </c>
       <c r="R17">
-        <v>999.004298782292</v>
+        <v>1331.227729152826</v>
       </c>
       <c r="S17">
-        <v>0.0005187641437515982</v>
+        <v>0.0006709545189573928</v>
       </c>
       <c r="T17">
-        <v>0.0005187641437515981</v>
+        <v>0.0006709545189573928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H18">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I18">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J18">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.63458</v>
       </c>
       <c r="O18">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P18">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q18">
-        <v>79.21615529295333</v>
+        <v>82.29600309801333</v>
       </c>
       <c r="R18">
-        <v>712.94539763658</v>
+        <v>740.66402788212</v>
       </c>
       <c r="S18">
-        <v>0.000370219136391507</v>
+        <v>0.0003733034293485952</v>
       </c>
       <c r="T18">
-        <v>0.0003702191363915068</v>
+        <v>0.0003733034293485952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H19">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I19">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J19">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N19">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O19">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P19">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q19">
-        <v>469.4053350983</v>
+        <v>791.7968744771084</v>
       </c>
       <c r="R19">
-        <v>4224.6480158847</v>
+        <v>7126.171870293976</v>
       </c>
       <c r="S19">
-        <v>0.002193780260288868</v>
+        <v>0.003591674898691881</v>
       </c>
       <c r="T19">
-        <v>0.002193780260288867</v>
+        <v>0.003591674898691881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H20">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I20">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J20">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N20">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q20">
-        <v>14.90683283844111</v>
+        <v>18.81217435183178</v>
       </c>
       <c r="R20">
-        <v>134.16149554597</v>
+        <v>169.309569166486</v>
       </c>
       <c r="S20">
-        <v>6.966754141716278E-05</v>
+        <v>8.53340251613267E-05</v>
       </c>
       <c r="T20">
-        <v>6.966754141716275E-05</v>
+        <v>8.533402516132668E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H21">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I21">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J21">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N21">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O21">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P21">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q21">
-        <v>709.3250072574373</v>
+        <v>655.2346451360295</v>
       </c>
       <c r="R21">
-        <v>6383.925065316936</v>
+        <v>5897.111806224266</v>
       </c>
       <c r="S21">
-        <v>0.003315052221817535</v>
+        <v>0.002972214091199217</v>
       </c>
       <c r="T21">
-        <v>0.003315052221817534</v>
+        <v>0.002972214091199217</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H22">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I22">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J22">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N22">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O22">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P22">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q22">
-        <v>7014.293373728833</v>
+        <v>9065.895596379072</v>
       </c>
       <c r="R22">
-        <v>63128.64036355951</v>
+        <v>81593.06036741166</v>
       </c>
       <c r="S22">
-        <v>0.03278151565946497</v>
+        <v>0.04112386736709374</v>
       </c>
       <c r="T22">
-        <v>0.03278151565946496</v>
+        <v>0.04112386736709373</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H23">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I23">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J23">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.63458</v>
       </c>
       <c r="O23">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P23">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q23">
-        <v>5005.792452112893</v>
+        <v>5044.052645332207</v>
       </c>
       <c r="R23">
-        <v>45052.13206901604</v>
+        <v>45396.47380798987</v>
       </c>
       <c r="S23">
-        <v>0.02339472487301103</v>
+        <v>0.0228803596703814</v>
       </c>
       <c r="T23">
-        <v>0.02339472487301102</v>
+        <v>0.02288035967038139</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H24">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I24">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J24">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N24">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O24">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P24">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q24">
-        <v>29662.45552724541</v>
+        <v>48530.48713089259</v>
       </c>
       <c r="R24">
-        <v>266962.0997452086</v>
+        <v>436774.3841780333</v>
       </c>
       <c r="S24">
-        <v>0.1386283975527041</v>
+        <v>0.2201394550394321</v>
       </c>
       <c r="T24">
-        <v>0.138628397552704</v>
+        <v>0.2201394550394321</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H25">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I25">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J25">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N25">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q25">
-        <v>941.9860258506512</v>
+        <v>1153.028023618543</v>
       </c>
       <c r="R25">
-        <v>8477.874232655862</v>
+        <v>10377.25221256689</v>
       </c>
       <c r="S25">
-        <v>0.004402400642818349</v>
+        <v>0.005230257839365541</v>
       </c>
       <c r="T25">
-        <v>0.004402400642818347</v>
+        <v>0.005230257839365539</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H26">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I26">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J26">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N26">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O26">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P26">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q26">
-        <v>44823.3539521459</v>
+        <v>40160.37135090811</v>
       </c>
       <c r="R26">
-        <v>403410.1855693131</v>
+        <v>361443.342158173</v>
       </c>
       <c r="S26">
-        <v>0.2094833222966384</v>
+        <v>0.1821717189758513</v>
       </c>
       <c r="T26">
-        <v>0.2094833222966383</v>
+        <v>0.1821717189758513</v>
       </c>
     </row>
   </sheetData>
